--- a/WinStock_project/winstock_개발이슈.xlsx
+++ b/WinStock_project/winstock_개발이슈.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="96">
   <si>
     <t>WINSTOCK 개발일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,118 @@
 3. koa 스튜디오 ? 확인
 4. 정상 작동 비밀번호 설정
 5. auto  로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건검색 실시간 편입 이벤트 보고있는거 하나만 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유종목은 내가 매입한 가격 대비해서 증감 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익률ㄹ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>my data 프로그램이 산 양만을 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수테이블 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매수테이블 추가 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트레일링 매수,분할매수 테이블 분리 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">div_stock 로드하면서 업데이트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_stock 실시간 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_stock 종목 편입 시 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_stock 로직 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_stock 실시간 UI업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_stock 실시간 자료구조 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_comp_func</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnReceiveTrData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnReceiveRealCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div_stock 매매시 값 , 상태 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d+day, delete(5일 넘은것),setrealreg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">div_stock 저장 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매매시 값 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜 하드코딩, 종목 편입시 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보여줄것 정리 ? 현재가 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유하지 않은 실시간 데이터 업데이트(현재가), 기준종가, 매입단가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재가 ?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,9 +587,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -495,6 +604,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -814,21 +926,21 @@
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="52.375" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="119.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="119.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G1"/>
     </row>
     <row r="2" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -859,13 +971,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>44775</v>
       </c>
       <c r="H4" s="1"/>
@@ -874,13 +986,13 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -889,24 +1001,24 @@
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" ht="148.5" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -917,13 +1029,13 @@
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="1"/>
@@ -932,11 +1044,11 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -947,13 +1059,13 @@
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="1"/>
@@ -962,11 +1074,13 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H11" s="1"/>
@@ -979,13 +1093,13 @@
       <c r="D12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="1"/>
@@ -996,13 +1110,13 @@
       <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="1"/>
@@ -1015,13 +1129,13 @@
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="1"/>
@@ -1030,11 +1144,13 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="H15" s="1"/>
@@ -1047,11 +1163,11 @@
       <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="1"/>
@@ -1064,11 +1180,11 @@
       <c r="D17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="1"/>
@@ -1079,13 +1195,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="1"/>
@@ -1094,11 +1210,13 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="1"/>
@@ -1109,11 +1227,11 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>67</v>
       </c>
       <c r="H20" s="1"/>
@@ -1124,33 +1242,39 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="12"/>
+      <c r="F21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="11"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="12"/>
+      <c r="F22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="11"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="H23" s="1"/>
@@ -1161,11 +1285,11 @@
         <v>9</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -1174,11 +1298,13 @@
       <c r="D25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="12"/>
+      <c r="F25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="11"/>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -1187,11 +1313,13 @@
       <c r="D26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="12"/>
+      <c r="F26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="11"/>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -1200,11 +1328,13 @@
       <c r="D27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="12" t="s">
+      <c r="F27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H27" s="1"/>
@@ -1215,11 +1345,13 @@
       <c r="D28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="12"/>
+      <c r="F28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="11"/>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -1228,11 +1360,13 @@
       <c r="D29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="11"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -1243,11 +1377,13 @@
       <c r="D30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="12" t="s">
+      <c r="F30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H30" s="1"/>
@@ -1256,381 +1392,452 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="12"/>
+      <c r="E31" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="11"/>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="12"/>
+      <c r="E32" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="11"/>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="12"/>
+      <c r="E33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="11"/>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="12"/>
+      <c r="D34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="12"/>
+      <c r="E35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="11"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="12"/>
+      <c r="G37" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="12"/>
+      <c r="D38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="13"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="13"/>
+      <c r="G42" s="13"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="14"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="14"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="14"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="14"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="14"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="13"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="14"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="14"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="14"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="14"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="14"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="14"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
